--- a/biology/Médecine/Dommage_alvéolaire_diffus/Dommage_alvéolaire_diffus.xlsx
+++ b/biology/Médecine/Dommage_alvéolaire_diffus/Dommage_alvéolaire_diffus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dommage_alv%C3%A9olaire_diffus</t>
+          <t>Dommage_alvéolaire_diffus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dommage alvéolaire diffus (DAD) est un syndrome lésionnel pulmonaire observé dans le syndrome de détresse respiratoire aigüe (SDRA)[1], dans les lésions pulmonaires aigües associées la transfusion sanguine (TRALI)  et dans la pneumonie aigüe interstitielle (AIP). Elle est proche de la maladie des membranes hyalines observée chez le nouveau-né. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dommage alvéolaire diffus (DAD) est un syndrome lésionnel pulmonaire observé dans le syndrome de détresse respiratoire aigüe (SDRA), dans les lésions pulmonaires aigües associées la transfusion sanguine (TRALI)  et dans la pneumonie aigüe interstitielle (AIP). Elle est proche de la maladie des membranes hyalines observée chez le nouveau-né. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dommage_alv%C3%A9olaire_diffus</t>
+          <t>Dommage_alvéolaire_diffus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le dommage alvéolaire diffus peut résulter des causes suivantes :
 infection bactérienne / pneumonie bactérienne ;
@@ -522,7 +536,7 @@
 agression physique du tissu pulmonaire (surpression, blast injury) ;
 sepsis ;
 chimiothérapie ;
-connectivites[2] : lupus érythémateux disséminé, polyarthrite rhumatoïde.</t>
+connectivites : lupus érythémateux disséminé, polyarthrite rhumatoïde.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dommage_alv%C3%A9olaire_diffus</t>
+          <t>Dommage_alvéolaire_diffus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Constatations microscopiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le DAD se développe en plusieurs phases[3],[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le DAD se développe en plusieurs phases, :
 phase aigüe exsudative :
 œdème pulmonaire, œdème alvéolaire, exsudat dans les alvéoles pulmonaires,
 infiltrat diffus neutrophilique avec hémorragie,
